--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.466500000000002</v>
+        <v>8.347000000000003</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -474,18 +474,18 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.658</v>
+        <v>16.6774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9148</v>
+        <v>-21.84079999999999</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.1862</v>
+        <v>-10.9668</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.682</v>
+        <v>16.61930000000001</v>
       </c>
     </row>
     <row r="7">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.10969999999999</v>
+        <v>-11.72529999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.76490000000001</v>
+        <v>-21.7476</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.14819999999999</v>
+        <v>-22.08050000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.739799999999992</v>
+        <v>6.817499999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3238</v>
+        <v>16.286</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.26119999999999</v>
+        <v>-20.29989999999997</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.56309999999998</v>
+        <v>-20.79259999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,27 +839,27 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.313900000000006</v>
+        <v>6.428399999999998</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.84860000000001</v>
+        <v>-11.608</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.55990000000001</v>
+        <v>16.4892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.0817</v>
+        <v>-22.07579999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5.374499999999996</v>
+        <v>5.106799999999995</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.07469999999999</v>
+        <v>-13.36709999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.08469999999997</v>
+        <v>-21.05649999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.137700000000003</v>
+        <v>5.998900000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.80489999999999</v>
+        <v>16.84959999999999</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.77139999999999</v>
+        <v>-20.87469999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.844200000000003</v>
+        <v>5.7767</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.80959999999999</v>
+        <v>15.8403</v>
       </c>
     </row>
     <row r="31">
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.720800000000006</v>
+        <v>5.617000000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.5846</v>
+        <v>16.3844</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>16.85310000000002</v>
+        <v>16.84480000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.430400000000006</v>
+        <v>9.603300000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.5645</v>
+        <v>-19.12709999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1131,7 +1131,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.78249999999999</v>
+        <v>-12.6862</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.3236</v>
+        <v>10.4059</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4911</v>
+        <v>16.29600000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.284500000000005</v>
+        <v>4.965400000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.18369999999999</v>
+        <v>-13.10239999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.165200000000001</v>
+        <v>5.1435</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.986300000000002</v>
+        <v>5.368499999999998</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.4272</v>
+        <v>-21.41150000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.4621</v>
+        <v>-10.2674</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.348799999999995</v>
+        <v>6.62909999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5469</v>
+        <v>16.64200000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1383,10 +1383,10 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.376000000000004</v>
+        <v>5.913499999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>-11.99519999999999</v>
+        <v>-12.19149999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.97859999999999</v>
+        <v>-21.99649999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>5.528300000000002</v>
+        <v>5.129899999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.45159999999999</v>
+        <v>-12.82169999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1420,18 +1420,18 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-14.12639999999999</v>
+        <v>-13.96059999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.17730000000002</v>
+        <v>15.95260000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2885</v>
+        <v>-22.47480000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>6.165100000000004</v>
+        <v>5.5982</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.34690000000001</v>
+        <v>-12.69820000000001</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-12.355</v>
+        <v>-11.69599999999999</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1522,7 +1522,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-12.0515</v>
+        <v>-11.73829999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.76739999999997</v>
+        <v>-21.65689999999996</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>16.95880000000001</v>
+        <v>17.03690000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58219999999999</v>
+        <v>-21.55630000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.46129999999999</v>
+        <v>-12.50289999999999</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>16.83880000000002</v>
+        <v>16.90240000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.6763</v>
+        <v>-11.7431</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.7943</v>
+        <v>9.022299999999996</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.353099999999996</v>
+        <v>9.063799999999997</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.60699999999999</v>
+        <v>16.6208</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.407</v>
+        <v>16.55340000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.53940000000001</v>
+        <v>-20.5501</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9545</v>
+        <v>-21.90039999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.12039999999999</v>
+        <v>16.61810000000002</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.52050000000001</v>
+        <v>16.475</v>
       </c>
     </row>
     <row r="85">
@@ -1896,13 +1896,13 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.4764</v>
+        <v>-13.2579</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.64820000000001</v>
+        <v>16.55410000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1944,10 +1944,10 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.636499999999999</v>
+        <v>5.376299999999997</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.3973</v>
+        <v>-10.29570000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.691500000000001</v>
+        <v>5.696000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.30600000000002</v>
+        <v>-21.41079999999999</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.269099999999993</v>
+        <v>5.047099999999991</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.99619999999999</v>
+        <v>-21.15619999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.9024</v>
+        <v>16.5697</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5965</v>
+        <v>16.50520000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.65089999999999</v>
+        <v>-11.6481</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2128,13 +2128,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.95649999999999</v>
+        <v>-22.0107</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.06029999999999</v>
+        <v>-13.42019999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.7427</v>
+        <v>-12.493</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
